--- a/Femel Inventory Data/Inventory_Data_2010.xlsx
+++ b/Femel Inventory Data/Inventory_Data_2010.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="23">
   <si>
     <t>Feld</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>H</t>
-  </si>
-  <si>
-    <t>GEI</t>
   </si>
   <si>
     <t>SAH</t>
@@ -3432,7 +3429,7 @@
         <v>16.0</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C249" s="2">
         <v>17.0</v>
@@ -3444,7 +3441,7 @@
         <v>16.0</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C250" s="2">
         <v>8.0</v>
@@ -3456,7 +3453,7 @@
         <v>16.0</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C251" s="2">
         <v>14.0</v>
@@ -3468,7 +3465,7 @@
         <v>16.0</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C252" s="2">
         <v>12.0</v>
@@ -3480,7 +3477,7 @@
         <v>16.0</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C253" s="2">
         <v>3.0</v>
@@ -3492,7 +3489,7 @@
         <v>16.0</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C254" s="2">
         <v>21.0</v>
@@ -4484,7 +4481,7 @@
         <v>17.0</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C334" s="2">
         <v>11.0</v>
@@ -5138,7 +5135,7 @@
         <v>14.0</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="387" ht="14.25" customHeight="1">
@@ -5166,7 +5163,7 @@
         <v>9.0</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="389" ht="14.25" customHeight="1">
@@ -5180,7 +5177,7 @@
         <v>13.0</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="390" ht="14.25" customHeight="1">
@@ -5316,7 +5313,7 @@
         <v>17.0</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C400" s="2">
         <v>7.0</v>
@@ -7106,7 +7103,7 @@
         <v>9.0</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="543" ht="14.25" customHeight="1">
@@ -7120,7 +7117,7 @@
         <v>17.0</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="544" ht="14.25" customHeight="1">
@@ -7128,7 +7125,7 @@
         <v>18.0</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C544" s="2">
         <v>7.0</v>
@@ -7142,7 +7139,7 @@
         <v>18.0</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C545" s="2">
         <v>10.0</v>
@@ -7154,7 +7151,7 @@
         <v>18.0</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C546" s="2">
         <v>9.0</v>
@@ -7166,7 +7163,7 @@
         <v>18.0</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C547" s="2">
         <v>11.0</v>
@@ -7178,7 +7175,7 @@
         <v>18.0</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C548" s="2">
         <v>7.0</v>
@@ -7462,7 +7459,7 @@
         <v>18.0</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C571" s="2">
         <v>7.0</v>
@@ -7476,7 +7473,7 @@
         <v>18.0</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C572" s="2">
         <v>6.0</v>
@@ -7700,7 +7697,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
